--- a/test/testCallNumber/callNumberPerformance.xlsx
+++ b/test/testCallNumber/callNumberPerformance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
   <si>
     <t>Rdata</t>
   </si>
@@ -139,6 +139,39 @@
   </si>
   <si>
     <t>0.14000000001397</t>
+  </si>
+  <si>
+    <t>0.0699999999999363</t>
+  </si>
+  <si>
+    <t>0.0899999999999181</t>
+  </si>
+  <si>
+    <t>0.0299999999999727</t>
+  </si>
+  <si>
+    <t>0.170000000000073</t>
+  </si>
+  <si>
+    <t>0.399999999999864</t>
+  </si>
+  <si>
+    <t>0.210000000000036</t>
+  </si>
+  <si>
+    <t>0.0499999999999545</t>
+  </si>
+  <si>
+    <t>0.0599999999999454</t>
+  </si>
+  <si>
+    <t>0.309999999999945</t>
+  </si>
+  <si>
+    <t>0.160000000000082</t>
+  </si>
+  <si>
+    <t>0.200000000000045</t>
   </si>
 </sst>
 </file>
@@ -204,9 +237,177 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="169">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
@@ -1232,17 +1433,213 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="109">
+      <c r="A29" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s" s="110">
+      <c r="B29" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s" s="111">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s" s="112">
+      <c r="C29" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="112" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="128" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="140" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="144" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="148" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="156" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="160" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="161" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="162" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="164" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="165">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s" s="166">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s" s="167">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="168">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test/testCallNumber/callNumberPerformance.xlsx
+++ b/test/testCallNumber/callNumberPerformance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>Rdata</t>
   </si>
@@ -139,39 +139,6 @@
   </si>
   <si>
     <t>0.14000000001397</t>
-  </si>
-  <si>
-    <t>0.0699999999999363</t>
-  </si>
-  <si>
-    <t>0.0899999999999181</t>
-  </si>
-  <si>
-    <t>0.0299999999999727</t>
-  </si>
-  <si>
-    <t>0.170000000000073</t>
-  </si>
-  <si>
-    <t>0.399999999999864</t>
-  </si>
-  <si>
-    <t>0.210000000000036</t>
-  </si>
-  <si>
-    <t>0.0499999999999545</t>
-  </si>
-  <si>
-    <t>0.0599999999999454</t>
-  </si>
-  <si>
-    <t>0.309999999999945</t>
-  </si>
-  <si>
-    <t>0.160000000000082</t>
-  </si>
-  <si>
-    <t>0.200000000000045</t>
   </si>
 </sst>
 </file>
@@ -237,177 +204,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
@@ -1433,213 +1232,17 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="109" t="s">
+      <c r="A29" t="s" s="109">
         <v>26</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" t="s" s="110">
         <v>27</v>
       </c>
-      <c r="C29" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="112" t="s">
+      <c r="C29" t="s" s="111">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s" s="112">
         <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="116" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="120" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="124" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="127" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="128" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="132" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="136" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="137" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="140" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="143" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="144" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="145" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="148" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="150" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="151" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="152" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="155" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="156" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="157" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="158" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="159" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="160" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="161" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="162" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="163" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="164" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="165">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s" s="166">
-        <v>27</v>
-      </c>
-      <c r="C43" t="s" s="167">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s" s="168">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
